--- a/src/main/resources/templates/post/cu_post_template.xlsx
+++ b/src/main/resources/templates/post/cu_post_template.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/Desktop/just-post/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-workspace-post\new_cupost\src\main\webapp\WEB-INF\views\front\xlsFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AB4BA-A78D-4645-85D5-C79E6B3B2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB267A-7F71-4EA8-89C1-798A1E76A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="업로드" sheetId="1" r:id="rId1"/>
+    <sheet name="유의사항" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">업로드!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,45 +29,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>수취인명 (30Byte)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소1(동/읍/면 까지) (80Byte)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소2(나머지주소) (80Byte)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>전화번호 , 예 : 000-0000-0000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지불방법(선불/후불)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>추가전화번호(선택입력)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배송요청사항 (80Byte) (선택입력)</t>
+    <t>주소1(동/읍/면 까지) (100 Byte)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">우편번호 5자리 , 예 : 00000 </t>
+    <t>수취인명 (30 Byte)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2(나머지주소) (100 Byte)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송요청사항 (80 Byte) (선택입력)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000-000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파일 크기가 1MB 이하인 파일만 업로드 가능하며 업로드 하려는 건수가 500건 이하만 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 첫번째 행은 타이틀이므로 무시하고 두번째 행부터 입력됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 전화번호 / 추가 전화번호는 반드시 "-"으로 구분하여 입력해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 입력 가능한 전화번호 양식은 아래와 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 수취인명, 주소1, 주소2, 배송요청사항 입력 시 한글은 2Byte, 영어, 숫자, 공백은 1Byte로 계산됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Byte = 한글 1글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Byte = 영문 1글자, 특수기호 1글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 입력 가능한 Byte 수는 아래와 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불방법(선불/착불)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +143,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +208,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +217,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,75 +506,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="83.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="83.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지불방법 입력 오류" error="지불방법은 선불 또는 후불로 입력해 주셔야 합니다." sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"선불,후불"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="배송요청사항 길이 오류" error="배송요청사항 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="F1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>LENB(F1)&lt;80</formula1>
     </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="배송요청사항 길이 오류" error="배송요청사항 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="G1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>LENB(G1)&lt;80</formula1>
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="주소2 길이 오류" error="주소2 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="C1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>LENB(C1)&lt;80</formula1>
     </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="주소2 길이 오류" error="주소2 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="D1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>LENB(D1)&lt;80</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="주소1 길이 오류" error="주소1 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="C1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>LENB(C1)&lt;80</formula1>
+    <dataValidation type="custom" showErrorMessage="1" errorTitle="주소1 길이 오류" error="주소1 길이가 초과되었습니다. 80Byte 까지 입력 가능합니다.(한글 40자, 영문숫자 80자)" sqref="B1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>LENB(B1)&lt;80</formula1>
     </dataValidation>
     <dataValidation type="custom" showErrorMessage="1" errorTitle="수취인명 길이 오류" error="수취인명 길이가 초과되었습니다. 30Byte 까지 입력 가능합니다.(한글 15자, 영문숫자 30자)" sqref="A1" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>LENB(A1)&lt;30</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="halfHangul" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"선불,후불"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="우편번호" error="숫자 5자리만 입력 가능합니다." promptTitle="우편번호" prompt="숫자 5자리로 입력해주세요." sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{332CF12B-7A22-40D6-A359-67D95AF1046C}">
+      <formula1>"선불,착불"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027A5A38-8347-4839-A973-39C4B25D4AE4}">
+  <dimension ref="B2:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>